--- a/src/com/tongguan/mouldFile/mould3.xlsx
+++ b/src/com/tongguan/mouldFile/mould3.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="105" windowWidth="15300" windowHeight="9420"/>
+    <workbookView xWindow="-150" yWindow="105" windowWidth="24870" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$5:$M$6</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -512,10 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M4"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,8 +659,12 @@
     <mergeCell ref="J5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
